--- a/문서/자유수강권자 추가(4월)/아이로보(재료).xlsx
+++ b/문서/자유수강권자 추가(4월)/아이로보(재료).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>주야</t>
   </si>
@@ -38,30 +38,6 @@
   </si>
   <si>
     <t>개인부담</t>
-  </si>
-  <si>
-    <t>주간</t>
-  </si>
-  <si>
-    <t>1학년</t>
-  </si>
-  <si>
-    <t>2반</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>안도현</t>
-  </si>
-  <si>
-    <t>4반</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>고태웅</t>
   </si>
 </sst>
 </file>
@@ -69,7 +45,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="28">
+  <fonts count="12">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -162,120 +138,8 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-    </font>
   </fonts>
-  <fills count="26">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -306,56 +170,8 @@
     <fill>
       <patternFill/>
     </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
-    <fill>
-      <patternFill/>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -498,251 +314,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -780,70 +356,6 @@
     </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="9" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="10" fontId="12" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="11" fillId="11" fontId="13" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="12" fillId="12" fontId="14" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="13" fillId="13" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="14" fillId="14" fontId="16" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="15" fillId="15" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="16" fillId="16" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="17" fillId="17" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="18" fillId="18" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="19" fillId="19" fontId="21" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="20" fillId="20" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="21" fillId="21" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="22" fontId="24" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="23" fillId="23" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="24" fillId="24" fontId="26" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="25" fillId="25" fontId="27" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -1144,7 +656,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1178,58 +690,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c s="11" r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c s="12" r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c s="13" r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c s="14" r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c s="15" r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c s="16" r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c s="17" r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c s="18" r="H2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c s="19" r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c s="20" r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c s="21" r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c s="22" r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c s="23" r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c s="24" r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c s="25" r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c s="26" r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
